--- a/medicine/Sexualité et sexologie/Good-bye,_Emmanuelle/Good-bye,_Emmanuelle.xlsx
+++ b/medicine/Sexualité et sexologie/Good-bye,_Emmanuelle/Good-bye,_Emmanuelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Good-bye, Emmanuelle est un film français réalisé par François Leterrier sorti en 1977.  
 Il s'agit du troisième volet de la série de films érotiques Emmanuelle, mais le film est aussi connu pour sa bande-son composée par Serge Gainsbourg. Toutefois, le film n'obtient pas le même succès que le premier épisode sorti en 1974.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmanuelle et Jean déménagent aux Seychelles, où elle le quitte. Le couple se déchire malgré ce changement de vie idyllique.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Good-bye, Emmanuelle
 Réalisation : François Leterrier
@@ -595,7 +611,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sylvia Kristel : Emmanuelle
 Umberto Orsini : Jean
